--- a/Squads/F1/Lille_Rennes_squad.xlsx
+++ b/Squads/F1/Lille_Rennes_squad.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="245">
   <si>
     <t>Rk</t>
   </si>
@@ -90,577 +90,580 @@
     <t>Aer%</t>
   </si>
   <si>
-    <t>1484</t>
+    <t>1491</t>
   </si>
   <si>
     <t>94</t>
   </si>
   <si>
+    <t>2524</t>
+  </si>
+  <si>
+    <t>1772</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2124</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>886</t>
+  </si>
+  <si>
+    <t>2528</t>
+  </si>
+  <si>
+    <t>1155</t>
+  </si>
+  <si>
+    <t>2386</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>939</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>681</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>2085</t>
+  </si>
+  <si>
+    <t>2121</t>
+  </si>
+  <si>
+    <t>2328</t>
+  </si>
+  <si>
+    <t>446</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>2556</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>914</t>
+  </si>
+  <si>
+    <t>1435</t>
+  </si>
+  <si>
     <t>2514</t>
   </si>
   <si>
-    <t>1764</t>
+    <t>373</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>778</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>1067</t>
+  </si>
+  <si>
+    <t>1428</t>
+  </si>
+  <si>
+    <t>1585</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>2400</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>682</t>
+  </si>
+  <si>
+    <t>1089</t>
+  </si>
+  <si>
+    <t>1276</t>
+  </si>
+  <si>
+    <t>1538</t>
+  </si>
+  <si>
+    <t>1676</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2323</t>
+  </si>
+  <si>
+    <t>Nemanja Matić</t>
+  </si>
+  <si>
+    <t>Benjamin André</t>
+  </si>
+  <si>
+    <t>Yusuf Yazıcı</t>
+  </si>
+  <si>
+    <t>Warmed Omari</t>
+  </si>
+  <si>
+    <t>Alexsandro Ribeiro</t>
+  </si>
+  <si>
+    <t>Tiago santos</t>
+  </si>
+  <si>
+    <t>Lorenz Assignon</t>
+  </si>
+  <si>
+    <t>Hákon Arnar Haraldsson</t>
+  </si>
+  <si>
+    <t>Nabil Bentaleb</t>
+  </si>
+  <si>
+    <t>Bafodé Diakité</t>
+  </si>
+  <si>
+    <t>Angel Gomes</t>
+  </si>
+  <si>
+    <t>Leny Yoro</t>
+  </si>
+  <si>
+    <t>Arnaud Kalimuendo</t>
+  </si>
+  <si>
+    <t>Adrien Truffert</t>
+  </si>
+  <si>
+    <t>Ayyoub Bouaddi</t>
+  </si>
+  <si>
+    <t>Jonathan David</t>
+  </si>
+  <si>
+    <t>Gabriel Gudmundsson</t>
+  </si>
+  <si>
+    <t>Ludovic Blas</t>
+  </si>
+  <si>
+    <t>Désiré Doué</t>
+  </si>
+  <si>
+    <t>Enzo Le Fée</t>
+  </si>
+  <si>
+    <t>Bertuğ Özgür Yıldırım</t>
+  </si>
+  <si>
+    <t>Ibrahim Salah</t>
+  </si>
+  <si>
+    <t>Baptiste Santamaria</t>
+  </si>
+  <si>
+    <t>Arthur Theate</t>
+  </si>
+  <si>
+    <t>Ivan Cavaleiro</t>
+  </si>
+  <si>
+    <t>Lucas Chevalier</t>
+  </si>
+  <si>
+    <t>Ismaily</t>
+  </si>
+  <si>
+    <t>Edon Zhegrova</t>
+  </si>
+  <si>
+    <t>Benjamin Bourigeaud</t>
+  </si>
+  <si>
+    <t>Amine Gouiri</t>
+  </si>
+  <si>
+    <t>Steve Mandanda</t>
+  </si>
+  <si>
+    <t>Christopher Wooh</t>
+  </si>
+  <si>
+    <t>Rémy Cabella</t>
+  </si>
+  <si>
+    <t>Trévis Dago</t>
+  </si>
+  <si>
+    <t>Ichem Ferrah</t>
+  </si>
+  <si>
+    <t>Tiago Fonseca Morais</t>
+  </si>
+  <si>
+    <t>Andrej Ilic</t>
+  </si>
+  <si>
+    <t>Aaron Malouda</t>
+  </si>
+  <si>
+    <t>Ignacio Miramon</t>
+  </si>
+  <si>
+    <t>Adam Ounas</t>
+  </si>
+  <si>
+    <t>Samuel Umtiti</t>
+  </si>
+  <si>
+    <t>Jeanuël Belocian</t>
+  </si>
+  <si>
+    <t>Djaoui Cissé</t>
+  </si>
+  <si>
+    <t>Guela Doué</t>
+  </si>
+  <si>
+    <t>Jérémy Jacquet</t>
+  </si>
+  <si>
+    <t>Mathis Lambourde</t>
+  </si>
+  <si>
+    <t>Birger Meling</t>
+  </si>
+  <si>
+    <t>Mahamadou Nagida</t>
+  </si>
+  <si>
+    <t>Fabian Rieder</t>
+  </si>
+  <si>
+    <t>Martin Terrier</t>
+  </si>
+  <si>
+    <t>rs SRB</t>
+  </si>
+  <si>
+    <t>fr FRA</t>
+  </si>
+  <si>
+    <t>tr TUR</t>
+  </si>
+  <si>
+    <t>br BRA</t>
+  </si>
+  <si>
+    <t>pt POR</t>
+  </si>
+  <si>
+    <t>tg TOG</t>
+  </si>
+  <si>
+    <t>is ISL</t>
+  </si>
+  <si>
+    <t>dz ALG</t>
+  </si>
+  <si>
+    <t>eng ENG</t>
+  </si>
+  <si>
+    <t>ca CAN</t>
+  </si>
+  <si>
+    <t>se SWE</t>
+  </si>
+  <si>
+    <t>ma MAR</t>
+  </si>
+  <si>
+    <t>be BEL</t>
+  </si>
+  <si>
+    <t>xk KVX</t>
+  </si>
+  <si>
+    <t>cm CMR</t>
+  </si>
+  <si>
+    <t>ci CIV</t>
+  </si>
+  <si>
+    <t>ar ARG</t>
+  </si>
+  <si>
+    <t>no NOR</t>
+  </si>
+  <si>
+    <t>ch SUI</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>MF,FW</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>FW,MF</t>
+  </si>
+  <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>DF,FW</t>
+  </si>
+  <si>
+    <t>GK</t>
+  </si>
+  <si>
+    <t>MF,DF</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>fr Ligue 1</t>
+  </si>
+  <si>
+    <t>35-217</t>
+  </si>
+  <si>
+    <t>33-215</t>
+  </si>
+  <si>
+    <t>27-036</t>
+  </si>
+  <si>
+    <t>23-317</t>
+  </si>
+  <si>
+    <t>24-209</t>
+  </si>
+  <si>
+    <t>21-226</t>
+  </si>
+  <si>
+    <t>23-257</t>
+  </si>
+  <si>
+    <t>20-330</t>
+  </si>
+  <si>
+    <t>29-102</t>
+  </si>
+  <si>
+    <t>23-059</t>
+  </si>
+  <si>
+    <t>23-187</t>
+  </si>
+  <si>
+    <t>18-113</t>
+  </si>
+  <si>
+    <t>22-045</t>
+  </si>
+  <si>
+    <t>22-106</t>
+  </si>
+  <si>
+    <t>16-155</t>
+  </si>
+  <si>
+    <t>24-051</t>
+  </si>
+  <si>
+    <t>24-311</t>
+  </si>
+  <si>
+    <t>26-065</t>
+  </si>
+  <si>
+    <t>18-276</t>
+  </si>
+  <si>
+    <t>24-031</t>
+  </si>
+  <si>
+    <t>21-237</t>
+  </si>
+  <si>
+    <t>22-188</t>
+  </si>
+  <si>
+    <t>28-362</t>
+  </si>
+  <si>
+    <t>23-285</t>
+  </si>
+  <si>
+    <t>30-139</t>
+  </si>
+  <si>
+    <t>22-120</t>
+  </si>
+  <si>
+    <t>34-054</t>
+  </si>
+  <si>
+    <t>24-340</t>
+  </si>
+  <si>
+    <t>30-051</t>
+  </si>
+  <si>
+    <t>24-018</t>
+  </si>
+  <si>
+    <t>38-343</t>
+  </si>
+  <si>
+    <t>22-169</t>
+  </si>
+  <si>
+    <t>33-363</t>
+  </si>
+  <si>
+    <t>19-044</t>
+  </si>
+  <si>
+    <t>18-164</t>
+  </si>
+  <si>
+    <t>20-184</t>
+  </si>
+  <si>
+    <t>23-337</t>
+  </si>
+  <si>
+    <t>18-096</t>
+  </si>
+  <si>
+    <t>20-267</t>
+  </si>
+  <si>
+    <t>27-115</t>
+  </si>
+  <si>
+    <t>30-112</t>
+  </si>
+  <si>
+    <t>19-017</t>
+  </si>
+  <si>
+    <t>20-034</t>
+  </si>
+  <si>
+    <t>21-140</t>
+  </si>
+  <si>
+    <t>18-236</t>
+  </si>
+  <si>
+    <t>18-056</t>
+  </si>
+  <si>
+    <t>29-079</t>
+  </si>
+  <si>
+    <t>18-251</t>
+  </si>
+  <si>
+    <t>22-018</t>
+  </si>
+  <si>
+    <t>27-001</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>1995</t>
   </si>
   <si>
     <t>1993</t>
-  </si>
-  <si>
-    <t>2115</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>619</t>
-  </si>
-  <si>
-    <t>885</t>
-  </si>
-  <si>
-    <t>2518</t>
-  </si>
-  <si>
-    <t>1152</t>
-  </si>
-  <si>
-    <t>2376</t>
-  </si>
-  <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>578</t>
-  </si>
-  <si>
-    <t>680</t>
-  </si>
-  <si>
-    <t>1295</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>2076</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2318</t>
-  </si>
-  <si>
-    <t>445</t>
-  </si>
-  <si>
-    <t>937</t>
-  </si>
-  <si>
-    <t>1077</t>
-  </si>
-  <si>
-    <t>2546</t>
-  </si>
-  <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>912</t>
-  </si>
-  <si>
-    <t>1428</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>471</t>
-  </si>
-  <si>
-    <t>558</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>796</t>
-  </si>
-  <si>
-    <t>1064</t>
-  </si>
-  <si>
-    <t>1421</t>
-  </si>
-  <si>
-    <t>1578</t>
-  </si>
-  <si>
-    <t>1799</t>
-  </si>
-  <si>
-    <t>2390</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>487</t>
-  </si>
-  <si>
-    <t>681</t>
-  </si>
-  <si>
-    <t>1086</t>
-  </si>
-  <si>
-    <t>1271</t>
-  </si>
-  <si>
-    <t>1531</t>
-  </si>
-  <si>
-    <t>1668</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2313</t>
-  </si>
-  <si>
-    <t>Nemanja Matić</t>
-  </si>
-  <si>
-    <t>Benjamin André</t>
-  </si>
-  <si>
-    <t>Yusuf Yazıcı</t>
-  </si>
-  <si>
-    <t>Warmed Omari</t>
-  </si>
-  <si>
-    <t>Alexsandro Ribeiro</t>
-  </si>
-  <si>
-    <t>Tiago santos</t>
-  </si>
-  <si>
-    <t>Lorenz Assignon</t>
-  </si>
-  <si>
-    <t>Hákon Arnar Haraldsson</t>
-  </si>
-  <si>
-    <t>Nabil Bentaleb</t>
-  </si>
-  <si>
-    <t>Bafodé Diakité</t>
-  </si>
-  <si>
-    <t>Angel Gomes</t>
-  </si>
-  <si>
-    <t>Leny Yoro</t>
-  </si>
-  <si>
-    <t>Arnaud Kalimuendo</t>
-  </si>
-  <si>
-    <t>Adrien Truffert</t>
-  </si>
-  <si>
-    <t>Ayyoub Bouaddi</t>
-  </si>
-  <si>
-    <t>Jonathan David</t>
-  </si>
-  <si>
-    <t>Désiré Doué</t>
-  </si>
-  <si>
-    <t>Enzo Le Fée</t>
-  </si>
-  <si>
-    <t>Bertuğ Özgür Yıldırım</t>
-  </si>
-  <si>
-    <t>Ibrahim Salah</t>
-  </si>
-  <si>
-    <t>Baptiste Santamaria</t>
-  </si>
-  <si>
-    <t>Arthur Theate</t>
-  </si>
-  <si>
-    <t>Ivan Cavaleiro</t>
-  </si>
-  <si>
-    <t>Gabriel Gudmundsson</t>
-  </si>
-  <si>
-    <t>Ismaily</t>
-  </si>
-  <si>
-    <t>Edon Zhegrova</t>
-  </si>
-  <si>
-    <t>Ludovic Blas</t>
-  </si>
-  <si>
-    <t>Benjamin Bourigeaud</t>
-  </si>
-  <si>
-    <t>Amine Gouiri</t>
-  </si>
-  <si>
-    <t>Steve Mandanda</t>
-  </si>
-  <si>
-    <t>Christopher Wooh</t>
-  </si>
-  <si>
-    <t>Rémy Cabella</t>
-  </si>
-  <si>
-    <t>Lucas Chevalier</t>
-  </si>
-  <si>
-    <t>Trévis Dago</t>
-  </si>
-  <si>
-    <t>Ichem Ferrah</t>
-  </si>
-  <si>
-    <t>Tiago Fonseca Morais</t>
-  </si>
-  <si>
-    <t>Andrej Ilic</t>
-  </si>
-  <si>
-    <t>Aaron Malouda</t>
-  </si>
-  <si>
-    <t>Ignacio Miramon</t>
-  </si>
-  <si>
-    <t>Adam Ounas</t>
-  </si>
-  <si>
-    <t>Samuel Umtiti</t>
-  </si>
-  <si>
-    <t>Jeanuël Belocian</t>
-  </si>
-  <si>
-    <t>Djaoui Cissé</t>
-  </si>
-  <si>
-    <t>Guela Doué</t>
-  </si>
-  <si>
-    <t>Jérémy Jacquet</t>
-  </si>
-  <si>
-    <t>Mathis Lambourde</t>
-  </si>
-  <si>
-    <t>Birger Meling</t>
-  </si>
-  <si>
-    <t>Mahamadou Nagida</t>
-  </si>
-  <si>
-    <t>Fabian Rieder</t>
-  </si>
-  <si>
-    <t>Martin Terrier</t>
-  </si>
-  <si>
-    <t>rs SRB</t>
-  </si>
-  <si>
-    <t>fr FRA</t>
-  </si>
-  <si>
-    <t>tr TUR</t>
-  </si>
-  <si>
-    <t>br BRA</t>
-  </si>
-  <si>
-    <t>pt POR</t>
-  </si>
-  <si>
-    <t>tg TOG</t>
-  </si>
-  <si>
-    <t>is ISL</t>
-  </si>
-  <si>
-    <t>dz ALG</t>
-  </si>
-  <si>
-    <t>eng ENG</t>
-  </si>
-  <si>
-    <t>ca CAN</t>
-  </si>
-  <si>
-    <t>ma MAR</t>
-  </si>
-  <si>
-    <t>be BEL</t>
-  </si>
-  <si>
-    <t>se SWE</t>
-  </si>
-  <si>
-    <t>xk KVX</t>
-  </si>
-  <si>
-    <t>cm CMR</t>
-  </si>
-  <si>
-    <t>ci CIV</t>
-  </si>
-  <si>
-    <t>ar ARG</t>
-  </si>
-  <si>
-    <t>no NOR</t>
-  </si>
-  <si>
-    <t>ch SUI</t>
-  </si>
-  <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>MF,FW</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>FW,MF</t>
-  </si>
-  <si>
-    <t>FW</t>
-  </si>
-  <si>
-    <t>DF,FW</t>
-  </si>
-  <si>
-    <t>MF,DF</t>
-  </si>
-  <si>
-    <t>GK</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>fr Ligue 1</t>
-  </si>
-  <si>
-    <t>35-210</t>
-  </si>
-  <si>
-    <t>33-208</t>
-  </si>
-  <si>
-    <t>27-029</t>
-  </si>
-  <si>
-    <t>23-310</t>
-  </si>
-  <si>
-    <t>24-202</t>
-  </si>
-  <si>
-    <t>21-219</t>
-  </si>
-  <si>
-    <t>23-250</t>
-  </si>
-  <si>
-    <t>20-323</t>
-  </si>
-  <si>
-    <t>29-095</t>
-  </si>
-  <si>
-    <t>23-052</t>
-  </si>
-  <si>
-    <t>23-180</t>
-  </si>
-  <si>
-    <t>18-106</t>
-  </si>
-  <si>
-    <t>22-038</t>
-  </si>
-  <si>
-    <t>22-099</t>
-  </si>
-  <si>
-    <t>16-148</t>
-  </si>
-  <si>
-    <t>24-044</t>
-  </si>
-  <si>
-    <t>18-269</t>
-  </si>
-  <si>
-    <t>24-024</t>
-  </si>
-  <si>
-    <t>21-230</t>
-  </si>
-  <si>
-    <t>22-181</t>
-  </si>
-  <si>
-    <t>28-355</t>
-  </si>
-  <si>
-    <t>23-278</t>
-  </si>
-  <si>
-    <t>30-132</t>
-  </si>
-  <si>
-    <t>24-304</t>
-  </si>
-  <si>
-    <t>34-047</t>
-  </si>
-  <si>
-    <t>24-333</t>
-  </si>
-  <si>
-    <t>26-058</t>
-  </si>
-  <si>
-    <t>30-044</t>
-  </si>
-  <si>
-    <t>24-011</t>
-  </si>
-  <si>
-    <t>38-336</t>
-  </si>
-  <si>
-    <t>22-162</t>
-  </si>
-  <si>
-    <t>33-356</t>
-  </si>
-  <si>
-    <t>22-113</t>
-  </si>
-  <si>
-    <t>19-037</t>
-  </si>
-  <si>
-    <t>18-157</t>
-  </si>
-  <si>
-    <t>20-177</t>
-  </si>
-  <si>
-    <t>23-330</t>
-  </si>
-  <si>
-    <t>18-089</t>
-  </si>
-  <si>
-    <t>20-260</t>
-  </si>
-  <si>
-    <t>27-108</t>
-  </si>
-  <si>
-    <t>30-105</t>
-  </si>
-  <si>
-    <t>19-010</t>
-  </si>
-  <si>
-    <t>20-027</t>
-  </si>
-  <si>
-    <t>21-133</t>
-  </si>
-  <si>
-    <t>18-229</t>
-  </si>
-  <si>
-    <t>18-049</t>
-  </si>
-  <si>
-    <t>29-072</t>
-  </si>
-  <si>
-    <t>18-244</t>
-  </si>
-  <si>
-    <t>22-011</t>
-  </si>
-  <si>
-    <t>26-360</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>1995</t>
   </si>
   <si>
     <t>1985</t>
@@ -878,7 +881,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>1572.0</v>
+        <v>1579.0</v>
       </c>
       <c r="C2" t="s">
         <v>75</v>
@@ -982,7 +985,7 @@
         <v>206</v>
       </c>
       <c r="J3" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="K3" t="n">
         <v>6.0</v>
@@ -994,22 +997,22 @@
         <v>0.0</v>
       </c>
       <c r="N3" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="O3" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="P3" t="n">
         <v>1.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="S3" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="T3" t="n">
         <v>0.0</v>
@@ -1021,16 +1024,16 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>149.0</v>
+        <v>153.0</v>
       </c>
       <c r="X3" t="n">
-        <v>46.0</v>
+        <v>49.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>63.0</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="4">
@@ -1038,7 +1041,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>2656.0</v>
+        <v>2666.0</v>
       </c>
       <c r="C4" t="s">
         <v>77</v>
@@ -1083,7 +1086,7 @@
         <v>4.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="R4" t="n">
         <v>5.0</v>
@@ -1101,7 +1104,7 @@
         <v>0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="X4" t="n">
         <v>5.0</v>
@@ -1118,7 +1121,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>1866.0</v>
+        <v>1874.0</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -1142,7 +1145,7 @@
         <v>208</v>
       </c>
       <c r="J5" t="n">
-        <v>16.1</v>
+        <v>17.0</v>
       </c>
       <c r="K5" t="n">
         <v>5.0</v>
@@ -1181,13 +1184,13 @@
         <v>1.0</v>
       </c>
       <c r="W5" t="n">
-        <v>81.0</v>
+        <v>84.0</v>
       </c>
       <c r="X5" t="n">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z5" t="n">
         <v>75.0</v>
@@ -1198,7 +1201,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>2107.0</v>
+        <v>2116.0</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -1234,7 +1237,7 @@
         <v>0.0</v>
       </c>
       <c r="N6" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="O6" t="n">
         <v>31.0</v>
@@ -1249,7 +1252,7 @@
         <v>29.0</v>
       </c>
       <c r="S6" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="T6" t="n">
         <v>0.0</v>
@@ -1278,7 +1281,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>2234.0</v>
+        <v>2243.0</v>
       </c>
       <c r="C7" t="s">
         <v>80</v>
@@ -1299,10 +1302,10 @@
         <v>160</v>
       </c>
       <c r="I7" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="J7" t="n">
-        <v>16.4</v>
+        <v>17.4</v>
       </c>
       <c r="K7" t="n">
         <v>4.0</v>
@@ -1314,22 +1317,22 @@
         <v>0.0</v>
       </c>
       <c r="N7" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="O7" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>54.0</v>
       </c>
-      <c r="P7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>51.0</v>
-      </c>
       <c r="R7" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="S7" t="n">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
       <c r="T7" t="n">
         <v>0.0</v>
@@ -1341,7 +1344,7 @@
         <v>0.0</v>
       </c>
       <c r="W7" t="n">
-        <v>88.0</v>
+        <v>90.0</v>
       </c>
       <c r="X7" t="n">
         <v>5.0</v>
@@ -1358,7 +1361,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>140.0</v>
+        <v>141.0</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
@@ -1438,7 +1441,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>127.0</v>
+        <v>128.0</v>
       </c>
       <c r="C9" t="s">
         <v>82</v>
@@ -1459,10 +1462,10 @@
         <v>162</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="J9" t="n">
-        <v>5.6</v>
+        <v>6.5</v>
       </c>
       <c r="K9" t="n">
         <v>3.0</v>
@@ -1474,10 +1477,10 @@
         <v>0.0</v>
       </c>
       <c r="N9" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="O9" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="P9" t="n">
         <v>1.0</v>
@@ -1507,10 +1510,10 @@
         <v>1.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.0</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="10">
@@ -1518,7 +1521,7 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>265.0</v>
+        <v>266.0</v>
       </c>
       <c r="C10" t="s">
         <v>83</v>
@@ -1542,7 +1545,7 @@
         <v>211</v>
       </c>
       <c r="J10" t="n">
-        <v>12.2</v>
+        <v>13.2</v>
       </c>
       <c r="K10" t="n">
         <v>3.0</v>
@@ -1557,7 +1560,7 @@
         <v>17.0</v>
       </c>
       <c r="O10" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="P10" t="n">
         <v>0.0</v>
@@ -1566,10 +1569,10 @@
         <v>3.0</v>
       </c>
       <c r="R10" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="S10" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="T10" t="n">
         <v>0.0</v>
@@ -1581,16 +1584,16 @@
         <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>96.0</v>
+        <v>101.0</v>
       </c>
       <c r="X10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>10.0</v>
       </c>
-      <c r="Y10" t="n">
-        <v>9.0</v>
-      </c>
       <c r="Z10" t="n">
-        <v>52.6</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="11">
@@ -1598,7 +1601,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>657.0</v>
+        <v>658.0</v>
       </c>
       <c r="C11" t="s">
         <v>84</v>
@@ -1622,7 +1625,7 @@
         <v>212</v>
       </c>
       <c r="J11" t="n">
-        <v>8.8</v>
+        <v>9.8</v>
       </c>
       <c r="K11" t="n">
         <v>3.0</v>
@@ -1646,10 +1649,10 @@
         <v>3.0</v>
       </c>
       <c r="R11" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="S11" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="T11" t="n">
         <v>0.0</v>
@@ -1661,16 +1664,16 @@
         <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>44.0</v>
+        <v>50.0</v>
       </c>
       <c r="X11" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>66.7</v>
+        <v>65.4</v>
       </c>
     </row>
     <row r="12">
@@ -1678,7 +1681,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>942.0</v>
+        <v>943.0</v>
       </c>
       <c r="C12" t="s">
         <v>85</v>
@@ -1702,7 +1705,7 @@
         <v>208</v>
       </c>
       <c r="J12" t="n">
-        <v>19.8</v>
+        <v>20.8</v>
       </c>
       <c r="K12" t="n">
         <v>3.0</v>
@@ -1714,16 +1717,16 @@
         <v>0.0</v>
       </c>
       <c r="N12" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="O12" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="P12" t="n">
         <v>0.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="R12" t="n">
         <v>14.0</v>
@@ -1741,7 +1744,7 @@
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>91.0</v>
+        <v>94.0</v>
       </c>
       <c r="X12" t="n">
         <v>6.0</v>
@@ -1758,7 +1761,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>2660.0</v>
+        <v>2670.0</v>
       </c>
       <c r="C13" t="s">
         <v>86</v>
@@ -1782,7 +1785,7 @@
         <v>213</v>
       </c>
       <c r="J13" t="n">
-        <v>20.6</v>
+        <v>21.6</v>
       </c>
       <c r="K13" t="n">
         <v>3.0</v>
@@ -1794,7 +1797,7 @@
         <v>0.0</v>
       </c>
       <c r="N13" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="O13" t="n">
         <v>13.0</v>
@@ -1806,10 +1809,10 @@
         <v>1.0</v>
       </c>
       <c r="R13" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="S13" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="T13" t="n">
         <v>0.0</v>
@@ -1821,16 +1824,16 @@
         <v>1.0</v>
       </c>
       <c r="W13" t="n">
-        <v>95.0</v>
+        <v>96.0</v>
       </c>
       <c r="X13" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>67.3</v>
+        <v>65.4</v>
       </c>
     </row>
     <row r="14">
@@ -1838,7 +1841,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>1223.0</v>
+        <v>1226.0</v>
       </c>
       <c r="C14" t="s">
         <v>87</v>
@@ -1859,10 +1862,10 @@
         <v>167</v>
       </c>
       <c r="I14" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="J14" t="n">
-        <v>14.8</v>
+        <v>15.7</v>
       </c>
       <c r="K14" t="n">
         <v>3.0</v>
@@ -1874,10 +1877,10 @@
         <v>0.0</v>
       </c>
       <c r="N14" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="O14" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="P14" t="n">
         <v>5.0</v>
@@ -1889,7 +1892,7 @@
         <v>4.0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="T14" t="n">
         <v>1.0</v>
@@ -1901,7 +1904,7 @@
         <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="X14" t="n">
         <v>4.0</v>
@@ -1918,7 +1921,7 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>2506.0</v>
+        <v>2516.0</v>
       </c>
       <c r="C15" t="s">
         <v>88</v>
@@ -1942,7 +1945,7 @@
         <v>212</v>
       </c>
       <c r="J15" t="n">
-        <v>16.6</v>
+        <v>17.6</v>
       </c>
       <c r="K15" t="n">
         <v>3.0</v>
@@ -1954,7 +1957,7 @@
         <v>0.0</v>
       </c>
       <c r="N15" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="O15" t="n">
         <v>23.0</v>
@@ -1963,7 +1966,7 @@
         <v>3.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="R15" t="n">
         <v>10.0</v>
@@ -1981,16 +1984,16 @@
         <v>0.0</v>
       </c>
       <c r="W15" t="n">
-        <v>81.0</v>
+        <v>84.0</v>
       </c>
       <c r="X15" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y15" t="n">
         <v>16.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>42.9</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="16">
@@ -1998,7 +2001,7 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>337.0</v>
+        <v>338.0</v>
       </c>
       <c r="C16" t="s">
         <v>89</v>
@@ -2078,7 +2081,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>615.0</v>
+        <v>616.0</v>
       </c>
       <c r="C17" t="s">
         <v>90</v>
@@ -2102,7 +2105,7 @@
         <v>208</v>
       </c>
       <c r="J17" t="n">
-        <v>18.6</v>
+        <v>19.6</v>
       </c>
       <c r="K17" t="n">
         <v>2.0</v>
@@ -2114,10 +2117,10 @@
         <v>0.0</v>
       </c>
       <c r="N17" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="O17" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="P17" t="n">
         <v>7.0</v>
@@ -2129,7 +2132,7 @@
         <v>6.0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="T17" t="n">
         <v>1.0</v>
@@ -2141,16 +2144,16 @@
         <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="X17" t="n">
         <v>10.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>22.2</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="18">
@@ -2158,19 +2161,19 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>722.0</v>
+        <v>997.0</v>
       </c>
       <c r="C18" t="s">
         <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G18" t="s">
         <v>154</v>
@@ -2179,10 +2182,10 @@
         <v>171</v>
       </c>
       <c r="I18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J18" t="n">
-        <v>9.4</v>
+        <v>10.6</v>
       </c>
       <c r="K18" t="n">
         <v>2.0</v>
@@ -2194,25 +2197,25 @@
         <v>0.0</v>
       </c>
       <c r="N18" t="n">
-        <v>23.0</v>
+        <v>12.0</v>
       </c>
       <c r="O18" t="n">
-        <v>33.0</v>
+        <v>11.0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.0</v>
+        <v>27.0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="S18" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U18" t="n">
         <v>0.0</v>
@@ -2221,16 +2224,16 @@
         <v>0.0</v>
       </c>
       <c r="W18" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="X18" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y18" t="n">
         <v>10.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>9.1</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="19">
@@ -2238,7 +2241,7 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>1371.0</v>
+        <v>305.0</v>
       </c>
       <c r="C19" t="s">
         <v>92</v>
@@ -2247,7 +2250,7 @@
         <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F19" t="s">
         <v>152</v>
@@ -2259,7 +2262,7 @@
         <v>172</v>
       </c>
       <c r="I19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J19" t="n">
         <v>13.9</v>
@@ -2274,22 +2277,22 @@
         <v>0.0</v>
       </c>
       <c r="N19" t="n">
-        <v>16.0</v>
+        <v>28.0</v>
       </c>
       <c r="O19" t="n">
-        <v>12.0</v>
+        <v>29.0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.0</v>
+        <v>35.0</v>
       </c>
       <c r="R19" t="n">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="S19" t="n">
-        <v>26.0</v>
+        <v>9.0</v>
       </c>
       <c r="T19" t="n">
         <v>0.0</v>
@@ -2301,16 +2304,16 @@
         <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>99.0</v>
+        <v>68.0</v>
       </c>
       <c r="X19" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z19" t="n">
-        <v>52.6</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="20">
@@ -2318,16 +2321,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>1906.0</v>
+        <v>723.0</v>
       </c>
       <c r="C20" t="s">
         <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F20" t="s">
         <v>152</v>
@@ -2339,10 +2342,10 @@
         <v>173</v>
       </c>
       <c r="I20" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J20" t="n">
-        <v>3.9</v>
+        <v>10.3</v>
       </c>
       <c r="K20" t="n">
         <v>2.0</v>
@@ -2354,43 +2357,43 @@
         <v>0.0</v>
       </c>
       <c r="N20" t="n">
-        <v>9.0</v>
+        <v>25.0</v>
       </c>
       <c r="O20" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>11.0</v>
       </c>
-      <c r="P20" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>27.0</v>
-      </c>
       <c r="Z20" t="n">
-        <v>28.9</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="21">
@@ -2398,16 +2401,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>2192.0</v>
+        <v>1376.0</v>
       </c>
       <c r="C21" t="s">
         <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F21" t="s">
         <v>152</v>
@@ -2419,10 +2422,10 @@
         <v>174</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J21" t="n">
-        <v>4.9</v>
+        <v>13.9</v>
       </c>
       <c r="K21" t="n">
         <v>2.0</v>
@@ -2434,43 +2437,43 @@
         <v>0.0</v>
       </c>
       <c r="N21" t="n">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
       <c r="O21" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>9.0</v>
       </c>
-      <c r="P21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>6.0</v>
-      </c>
       <c r="Z21" t="n">
-        <v>40.0</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="22">
@@ -2478,16 +2481,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>2230.0</v>
+        <v>1914.0</v>
       </c>
       <c r="C22" t="s">
         <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E22" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F22" t="s">
         <v>152</v>
@@ -2499,10 +2502,10 @@
         <v>175</v>
       </c>
       <c r="I22" t="s">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="J22" t="n">
-        <v>14.3</v>
+        <v>4.0</v>
       </c>
       <c r="K22" t="n">
         <v>2.0</v>
@@ -2514,43 +2517,43 @@
         <v>0.0</v>
       </c>
       <c r="N22" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="O22" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R22" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="S22" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>27.0</v>
       </c>
-      <c r="T22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>22.0</v>
-      </c>
       <c r="Z22" t="n">
-        <v>55.1</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="23">
@@ -2558,7 +2561,7 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>2447.0</v>
+        <v>2201.0</v>
       </c>
       <c r="C23" t="s">
         <v>96</v>
@@ -2567,7 +2570,7 @@
         <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F23" t="s">
         <v>152</v>
@@ -2579,10 +2582,10 @@
         <v>176</v>
       </c>
       <c r="I23" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="J23" t="n">
-        <v>18.4</v>
+        <v>5.0</v>
       </c>
       <c r="K23" t="n">
         <v>2.0</v>
@@ -2594,23 +2597,23 @@
         <v>0.0</v>
       </c>
       <c r="N23" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="O23" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q23" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S23" t="n">
         <v>7.0</v>
       </c>
-      <c r="R23" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>10.0</v>
-      </c>
       <c r="T23" t="n">
         <v>0.0</v>
       </c>
@@ -2621,16 +2624,16 @@
         <v>0.0</v>
       </c>
       <c r="W23" t="n">
-        <v>105.0</v>
+        <v>32.0</v>
       </c>
       <c r="X23" t="n">
-        <v>31.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y23" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>67.4</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="24">
@@ -2638,19 +2641,19 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>473.0</v>
+        <v>2239.0</v>
       </c>
       <c r="C24" t="s">
         <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G24" t="s">
         <v>154</v>
@@ -2659,13 +2662,13 @@
         <v>177</v>
       </c>
       <c r="I24" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="J24" t="n">
-        <v>8.1</v>
+        <v>15.1</v>
       </c>
       <c r="K24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
@@ -2674,23 +2677,23 @@
         <v>0.0</v>
       </c>
       <c r="N24" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="O24" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="S24" t="n">
         <v>27.0</v>
       </c>
-      <c r="R24" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5.0</v>
-      </c>
       <c r="T24" t="n">
         <v>0.0</v>
       </c>
@@ -2701,16 +2704,16 @@
         <v>0.0</v>
       </c>
       <c r="W24" t="n">
-        <v>30.0</v>
+        <v>93.0</v>
       </c>
       <c r="X24" t="n">
-        <v>14.0</v>
+        <v>28.0</v>
       </c>
       <c r="Y24" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>43.8</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="25">
@@ -2718,7 +2721,7 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>995.0</v>
+        <v>2457.0</v>
       </c>
       <c r="C25" t="s">
         <v>98</v>
@@ -2727,10 +2730,10 @@
         <v>137</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G25" t="s">
         <v>154</v>
@@ -2739,13 +2742,13 @@
         <v>178</v>
       </c>
       <c r="I25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J25" t="n">
-        <v>9.6</v>
+        <v>19.4</v>
       </c>
       <c r="K25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L25" t="n">
         <v>0.0</v>
@@ -2757,20 +2760,20 @@
         <v>10.0</v>
       </c>
       <c r="O25" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="P25" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q25" t="n">
-        <v>27.0</v>
+        <v>7.0</v>
       </c>
       <c r="R25" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S25" t="n">
         <v>10.0</v>
       </c>
-      <c r="S25" t="n">
-        <v>11.0</v>
-      </c>
       <c r="T25" t="n">
         <v>0.0</v>
       </c>
@@ -2781,16 +2784,16 @@
         <v>0.0</v>
       </c>
       <c r="W25" t="n">
-        <v>50.0</v>
+        <v>109.0</v>
       </c>
       <c r="X25" t="n">
-        <v>6.0</v>
+        <v>32.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>37.5</v>
+        <v>68.1</v>
       </c>
     </row>
     <row r="26">
@@ -2798,16 +2801,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>1141.0</v>
+        <v>474.0</v>
       </c>
       <c r="C26" t="s">
         <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F26" t="s">
         <v>153</v>
@@ -2819,58 +2822,58 @@
         <v>179</v>
       </c>
       <c r="I26" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="J26" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>18.0</v>
       </c>
-      <c r="K26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>11.0</v>
-      </c>
       <c r="Z26" t="n">
-        <v>72.5</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="27">
@@ -2878,16 +2881,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>2692.0</v>
+        <v>502.0</v>
       </c>
       <c r="C27" t="s">
         <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F27" t="s">
         <v>153</v>
@@ -2899,10 +2902,10 @@
         <v>180</v>
       </c>
       <c r="I27" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J27" t="n">
-        <v>16.8</v>
+        <v>24.0</v>
       </c>
       <c r="K27" t="n">
         <v>1.0</v>
@@ -2914,43 +2917,43 @@
         <v>0.0</v>
       </c>
       <c r="N27" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="O27" t="n">
-        <v>18.0</v>
+        <v>4.0</v>
       </c>
       <c r="P27" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q27" t="n">
-        <v>124.0</v>
+        <v>0.0</v>
       </c>
       <c r="R27" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="S27" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="T27" t="n">
         <v>0.0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V27" t="n">
         <v>0.0</v>
       </c>
       <c r="W27" t="n">
-        <v>82.0</v>
+        <v>43.0</v>
       </c>
       <c r="X27" t="n">
         <v>2.0</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.2</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="28">
@@ -2958,19 +2961,19 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>304.0</v>
+        <v>1144.0</v>
       </c>
       <c r="C28" t="s">
         <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G28" t="s">
         <v>154</v>
@@ -2979,10 +2982,10 @@
         <v>181</v>
       </c>
       <c r="I28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J28" t="n">
-        <v>12.9</v>
+        <v>18.1</v>
       </c>
       <c r="K28" t="n">
         <v>1.0</v>
@@ -2994,22 +2997,22 @@
         <v>0.0</v>
       </c>
       <c r="N28" t="n">
-        <v>27.0</v>
+        <v>10.0</v>
       </c>
       <c r="O28" t="n">
-        <v>29.0</v>
+        <v>19.0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.0</v>
+        <v>20.0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.0</v>
+        <v>21.0</v>
       </c>
       <c r="S28" t="n">
-        <v>9.0</v>
+        <v>32.0</v>
       </c>
       <c r="T28" t="n">
         <v>0.0</v>
@@ -3021,16 +3024,16 @@
         <v>0.0</v>
       </c>
       <c r="W28" t="n">
-        <v>62.0</v>
+        <v>84.0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.0</v>
+        <v>30.0</v>
       </c>
       <c r="Y28" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z28" t="n">
-        <v>7.7</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="29">
@@ -3038,19 +3041,19 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>343.0</v>
+        <v>2702.0</v>
       </c>
       <c r="C29" t="s">
         <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G29" t="s">
         <v>154</v>
@@ -3059,7 +3062,7 @@
         <v>182</v>
       </c>
       <c r="I29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J29" t="n">
         <v>17.8</v>
@@ -3074,43 +3077,43 @@
         <v>0.0</v>
       </c>
       <c r="N29" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>7.0</v>
       </c>
-      <c r="O29" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>107.0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>13.0</v>
-      </c>
       <c r="Z29" t="n">
-        <v>27.8</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="30">
@@ -3118,16 +3121,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>969.0</v>
+        <v>344.0</v>
       </c>
       <c r="C30" t="s">
         <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F30" t="s">
         <v>152</v>
@@ -3139,10 +3142,10 @@
         <v>183</v>
       </c>
       <c r="I30" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="J30" t="n">
-        <v>15.8</v>
+        <v>18.8</v>
       </c>
       <c r="K30" t="n">
         <v>1.0</v>
@@ -3154,25 +3157,25 @@
         <v>0.0</v>
       </c>
       <c r="N30" t="n">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="O30" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.0</v>
+        <v>117.0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="S30" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U30" t="n">
         <v>0.0</v>
@@ -3181,16 +3184,16 @@
         <v>0.0</v>
       </c>
       <c r="W30" t="n">
-        <v>50.0</v>
+        <v>75.0</v>
       </c>
       <c r="X30" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>14.0</v>
       </c>
-      <c r="Y30" t="n">
-        <v>15.0</v>
-      </c>
       <c r="Z30" t="n">
-        <v>48.3</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="31">
@@ -3198,16 +3201,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>1512.0</v>
+        <v>971.0</v>
       </c>
       <c r="C31" t="s">
         <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F31" t="s">
         <v>152</v>
@@ -3219,10 +3222,10 @@
         <v>184</v>
       </c>
       <c r="I31" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J31" t="n">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="K31" t="n">
         <v>1.0</v>
@@ -3234,43 +3237,43 @@
         <v>0.0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="O31" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="S31" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W31" t="n">
-        <v>21.0</v>
+        <v>52.0</v>
       </c>
       <c r="X31" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>100.0</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="32">
@@ -3278,16 +3281,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>2646.0</v>
+        <v>1519.0</v>
       </c>
       <c r="C32" t="s">
         <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F32" t="s">
         <v>152</v>
@@ -3299,37 +3302,37 @@
         <v>185</v>
       </c>
       <c r="I32" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="J32" t="n">
-        <v>7.1</v>
+        <v>24.0</v>
       </c>
       <c r="K32" t="n">
         <v>1.0</v>
       </c>
       <c r="L32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M32" t="n">
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="O32" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="P32" t="n">
         <v>0.0</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="R32" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="S32" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="T32" t="n">
         <v>0.0</v>
@@ -3338,19 +3341,19 @@
         <v>1.0</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W32" t="n">
-        <v>29.0</v>
+        <v>22.0</v>
       </c>
       <c r="X32" t="n">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>70.8</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="33">
@@ -3358,19 +3361,19 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>400.0</v>
+        <v>2656.0</v>
       </c>
       <c r="C33" t="s">
         <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G33" t="s">
         <v>154</v>
@@ -3379,58 +3382,58 @@
         <v>186</v>
       </c>
       <c r="I33" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J33" t="n">
-        <v>12.3</v>
+        <v>7.2</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M33" t="n">
         <v>0.0</v>
       </c>
       <c r="N33" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="O33" t="n">
-        <v>26.0</v>
+        <v>7.0</v>
       </c>
       <c r="P33" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q33" t="n">
-        <v>38.0</v>
+        <v>2.0</v>
       </c>
       <c r="R33" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S33" t="n">
         <v>4.0</v>
       </c>
-      <c r="S33" t="n">
-        <v>27.0</v>
-      </c>
       <c r="T33" t="n">
         <v>0.0</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V33" t="n">
         <v>0.0</v>
       </c>
       <c r="W33" t="n">
-        <v>65.0</v>
+        <v>29.0</v>
       </c>
       <c r="X33" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="Y33" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z33" t="n">
-        <v>31.3</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="34">
@@ -3438,7 +3441,7 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>501.0</v>
+        <v>401.0</v>
       </c>
       <c r="C34" t="s">
         <v>107</v>
@@ -3447,7 +3450,7 @@
         <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F34" t="s">
         <v>153</v>
@@ -3459,10 +3462,10 @@
         <v>187</v>
       </c>
       <c r="I34" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J34" t="n">
-        <v>23.0</v>
+        <v>12.3</v>
       </c>
       <c r="K34" t="n">
         <v>0.0</v>
@@ -3474,43 +3477,43 @@
         <v>0.0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="O34" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="R34" t="n">
         <v>4.0</v>
       </c>
-      <c r="P34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0.0</v>
-      </c>
       <c r="S34" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="T34" t="n">
         <v>0.0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V34" t="n">
         <v>0.0</v>
       </c>
       <c r="W34" t="n">
-        <v>39.0</v>
+        <v>65.0</v>
       </c>
       <c r="X34" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z34" t="n">
-        <v>100.0</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="35">
@@ -3518,7 +3521,7 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>592.0</v>
+        <v>593.0</v>
       </c>
       <c r="C35" t="s">
         <v>108</v>
@@ -3527,7 +3530,7 @@
         <v>140</v>
       </c>
       <c r="E35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F35" t="s">
         <v>153</v>
@@ -3587,10 +3590,10 @@
         <v>0.0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z35" t="e">
-        <v>#N/A</v>
+        <v>1.0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
@@ -3598,7 +3601,7 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>828.0</v>
+        <v>829.0</v>
       </c>
       <c r="C36" t="s">
         <v>109</v>
@@ -3678,7 +3681,7 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>847.0</v>
+        <v>848.0</v>
       </c>
       <c r="C37" t="s">
         <v>110</v>
@@ -3699,7 +3702,7 @@
         <v>190</v>
       </c>
       <c r="I37" t="s">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="J37" t="n">
         <v>0.5</v>
@@ -3758,7 +3761,7 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>1128.0</v>
+        <v>1131.0</v>
       </c>
       <c r="C38" t="s">
         <v>111</v>
@@ -3838,7 +3841,7 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>1505.0</v>
+        <v>1512.0</v>
       </c>
       <c r="C39" t="s">
         <v>112</v>
@@ -3918,7 +3921,7 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1676.0</v>
+        <v>1683.0</v>
       </c>
       <c r="C40" t="s">
         <v>113</v>
@@ -3939,7 +3942,7 @@
         <v>193</v>
       </c>
       <c r="I40" t="s">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="J40" t="n">
         <v>0.4</v>
@@ -3998,7 +4001,7 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1902.0</v>
+        <v>1910.0</v>
       </c>
       <c r="C41" t="s">
         <v>114</v>
@@ -4019,7 +4022,7 @@
         <v>194</v>
       </c>
       <c r="I41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J41" t="n">
         <v>4.4</v>
@@ -4078,7 +4081,7 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>2520.0</v>
+        <v>2530.0</v>
       </c>
       <c r="C42" t="s">
         <v>115</v>
@@ -4099,7 +4102,7 @@
         <v>195</v>
       </c>
       <c r="I42" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="J42" t="n">
         <v>2.1</v>
@@ -4158,7 +4161,7 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>252.0</v>
+        <v>253.0</v>
       </c>
       <c r="C43" t="s">
         <v>116</v>
@@ -4238,7 +4241,7 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>517.0</v>
+        <v>518.0</v>
       </c>
       <c r="C44" t="s">
         <v>117</v>
@@ -4259,7 +4262,7 @@
         <v>197</v>
       </c>
       <c r="I44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J44" t="n">
         <v>0.0</v>
@@ -4318,7 +4321,7 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>723.0</v>
+        <v>724.0</v>
       </c>
       <c r="C45" t="s">
         <v>118</v>
@@ -4339,10 +4342,10 @@
         <v>198</v>
       </c>
       <c r="I45" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="J45" t="n">
-        <v>7.0</v>
+        <v>7.2</v>
       </c>
       <c r="K45" t="n">
         <v>0.0</v>
@@ -4354,16 +4357,16 @@
         <v>0.0</v>
       </c>
       <c r="N45" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="O45" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="P45" t="n">
         <v>0.0</v>
       </c>
       <c r="Q45" t="n">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
       <c r="R45" t="n">
         <v>10.0</v>
@@ -4398,7 +4401,7 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1151.0</v>
+        <v>1154.0</v>
       </c>
       <c r="C46" t="s">
         <v>119</v>
@@ -4478,7 +4481,7 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1346.0</v>
+        <v>1351.0</v>
       </c>
       <c r="C47" t="s">
         <v>120</v>
@@ -4499,7 +4502,7 @@
         <v>200</v>
       </c>
       <c r="I47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J47" t="n">
         <v>0.1</v>
@@ -4558,7 +4561,7 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>1627.0</v>
+        <v>1634.0</v>
       </c>
       <c r="C48" t="s">
         <v>121</v>
@@ -4638,7 +4641,7 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>1767.0</v>
+        <v>1775.0</v>
       </c>
       <c r="C49" t="s">
         <v>122</v>
@@ -4718,7 +4721,7 @@
         <v>73</v>
       </c>
       <c r="B50" t="n">
-        <v>2117.0</v>
+        <v>2126.0</v>
       </c>
       <c r="C50" t="s">
         <v>123</v>
@@ -4739,7 +4742,7 @@
         <v>203</v>
       </c>
       <c r="I50" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="J50" t="n">
         <v>2.8</v>
@@ -4798,7 +4801,7 @@
         <v>74</v>
       </c>
       <c r="B51" t="n">
-        <v>2442.0</v>
+        <v>2452.0</v>
       </c>
       <c r="C51" t="s">
         <v>124</v>
@@ -4822,7 +4825,7 @@
         <v>207</v>
       </c>
       <c r="J51" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K51" t="n">
         <v>0.0</v>
@@ -4837,7 +4840,7 @@
         <v>4.0</v>
       </c>
       <c r="O51" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="P51" t="n">
         <v>4.0</v>
@@ -4861,16 +4864,16 @@
         <v>0.0</v>
       </c>
       <c r="W51" t="n">
-        <v>33.0</v>
+        <v>37.0</v>
       </c>
       <c r="X51" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="Y51" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="Z51" t="n">
-        <v>45.2</v>
+        <v>46.7</v>
       </c>
     </row>
   </sheetData>
@@ -4913,79 +4916,79 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="U1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="V1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="W1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="X1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AA1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AB1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AD1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AE1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AH1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2">
@@ -4993,7 +4996,7 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>615.0</v>
+        <v>616.0</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
@@ -5017,28 +5020,28 @@
         <v>208</v>
       </c>
       <c r="J2" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="K2" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="L2" t="e">
         <v>#N/A</v>
       </c>
       <c r="M2" t="n">
-        <v>18.6</v>
+        <v>19.6</v>
       </c>
       <c r="N2" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="O2" t="n">
         <v>2.0</v>
       </c>
       <c r="P2" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="R2" t="n">
         <v>1.0</v>
@@ -5053,16 +5056,16 @@
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>11.8</v>
+        <v>12.8</v>
       </c>
       <c r="W2" t="n">
-        <v>10.2</v>
+        <v>11.1</v>
       </c>
       <c r="X2" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z2" t="n">
         <v>34.0</v>
@@ -5071,42 +5074,42 @@
         <v>48.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.0</v>
+        <v>140.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.54</v>
+        <v>0.56</v>
       </c>
       <c r="AG2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AH2" t="n">
         <v>0.65</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="n">
-        <v>343.0</v>
+        <v>344.0</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
         <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F3" t="s">
         <v>152</v>
@@ -5115,31 +5118,31 @@
         <v>154</v>
       </c>
       <c r="H3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I3" t="s">
         <v>211</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="K3" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="L3" t="e">
         <v>#N/A</v>
       </c>
       <c r="M3" t="n">
-        <v>17.8</v>
+        <v>18.8</v>
       </c>
       <c r="N3" t="n">
         <v>6.0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="P3" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="Q3" t="n">
         <v>2.0</v>
@@ -5157,60 +5160,60 @@
         <v>0.0</v>
       </c>
       <c r="V3" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="W3" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="X3" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.0</v>
+        <v>7.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.0</v>
+        <v>130.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.0</v>
+        <v>92.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="AF3" t="n">
         <v>0.11</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B4" t="n">
-        <v>1223.0</v>
+        <v>971.0</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" t="s">
         <v>152</v>
@@ -5219,13 +5222,13 @@
         <v>154</v>
       </c>
       <c r="H4" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="I4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J4" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="K4" t="n">
         <v>16.0</v>
@@ -5234,87 +5237,87 @@
         <v>#N/A</v>
       </c>
       <c r="M4" t="n">
-        <v>14.8</v>
+        <v>16.0</v>
       </c>
       <c r="N4" t="n">
         <v>5.0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>5.0</v>
       </c>
-      <c r="Q4" t="n">
-        <v>3.0</v>
-      </c>
       <c r="R4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="S4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="T4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="U4" t="n">
         <v>0.0</v>
       </c>
       <c r="V4" t="n">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
       <c r="W4" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="X4" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.0</v>
+        <v>44.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>23.0</v>
+        <v>61.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>110.0</v>
+        <v>131.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0</v>
+        <v>0.06</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.2</v>
+        <v>0.37</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.39</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B5" t="n">
-        <v>2442.0</v>
+        <v>1226.0</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
         <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F5" t="s">
         <v>152</v>
@@ -5323,139 +5326,139 @@
         <v>154</v>
       </c>
       <c r="H5" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="I5" t="s">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c r="J5" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="K5" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>899.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="L5" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M5" t="n">
-        <v>10.0</v>
+        <v>15.7</v>
       </c>
       <c r="N5" t="n">
         <v>5.0</v>
       </c>
       <c r="O5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R5" t="n">
         <v>2.0</v>
       </c>
-      <c r="P5" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.0</v>
-      </c>
       <c r="S5" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="U5" t="n">
         <v>0.0</v>
       </c>
       <c r="V5" t="n">
-        <v>3.3</v>
+        <v>6.0</v>
       </c>
       <c r="W5" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="X5" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>39.0</v>
+        <v>23.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>63.0</v>
+        <v>116.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.5</v>
+        <v>0.32</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.7</v>
+        <v>0.32</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.5</v>
+        <v>0.19</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="B6" t="n">
-        <v>2656.0</v>
+        <v>2452.0</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G6" t="s">
         <v>154</v>
       </c>
       <c r="H6" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="I6" t="s">
         <v>207</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
       <c r="K6" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L6" t="e">
-        <v>#N/A</v>
+        <v>12.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>989.0</v>
       </c>
       <c r="M6" t="n">
-        <v>12.1</v>
+        <v>11.0</v>
       </c>
       <c r="N6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>5.0</v>
       </c>
-      <c r="Q6" t="n">
-        <v>4.0</v>
-      </c>
       <c r="R6" t="n">
         <v>0.0</v>
       </c>
@@ -5463,90 +5466,90 @@
         <v>0.0</v>
       </c>
       <c r="T6" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="U6" t="n">
         <v>0.0</v>
       </c>
       <c r="V6" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="W6" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="X6" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y6" t="n">
         <v>5.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>66.0</v>
+        <v>70.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.41</v>
+        <v>0.64</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.41</v>
+        <v>0.64</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>969.0</v>
+        <v>2666.0</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G7" t="s">
         <v>154</v>
       </c>
       <c r="H7" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="I7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J7" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="K7" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="L7" t="e">
         <v>#N/A</v>
       </c>
       <c r="M7" t="n">
-        <v>15.8</v>
+        <v>12.1</v>
       </c>
       <c r="N7" t="n">
         <v>4.0</v>
@@ -5567,49 +5570,49 @@
         <v>0.0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U7" t="n">
         <v>0.0</v>
       </c>
       <c r="V7" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="W7" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="X7" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>40.0</v>
+        <v>24.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>62.0</v>
+        <v>41.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>130.0</v>
+        <v>66.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="8">
@@ -5641,16 +5644,16 @@
         <v>206</v>
       </c>
       <c r="J8" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="K8" t="n">
         <v>21.0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>20.0</v>
       </c>
       <c r="L8" t="e">
         <v>#N/A</v>
       </c>
       <c r="M8" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="N8" t="n">
         <v>3.0</v>
@@ -5692,28 +5695,28 @@
         <v>16.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>129.0</v>
+        <v>138.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AD8" t="n">
         <v>0.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="9">
@@ -5721,7 +5724,7 @@
         <v>34</v>
       </c>
       <c r="B9" t="n">
-        <v>657.0</v>
+        <v>658.0</v>
       </c>
       <c r="C9" t="s">
         <v>84</v>
@@ -5745,16 +5748,16 @@
         <v>212</v>
       </c>
       <c r="J9" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K9" t="n">
         <v>10.0</v>
       </c>
-      <c r="K9" t="n">
-        <v>9.0</v>
-      </c>
       <c r="L9" t="n">
-        <v>793.0</v>
+        <v>883.0</v>
       </c>
       <c r="M9" t="n">
-        <v>8.8</v>
+        <v>9.8</v>
       </c>
       <c r="N9" t="n">
         <v>3.0</v>
@@ -5796,39 +5799,39 @@
         <v>9.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>34.0</v>
+        <v>43.0</v>
       </c>
       <c r="AB9" t="n">
         <v>9.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B10" t="n">
-        <v>2692.0</v>
+        <v>2702.0</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
         <v>138</v>
@@ -5843,22 +5846,22 @@
         <v>154</v>
       </c>
       <c r="H10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I10" t="s">
         <v>209</v>
       </c>
       <c r="J10" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="K10" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="L10" t="e">
         <v>#N/A</v>
       </c>
       <c r="M10" t="n">
-        <v>16.8</v>
+        <v>17.8</v>
       </c>
       <c r="N10" t="n">
         <v>3.0</v>
@@ -5885,54 +5888,54 @@
         <v>0.0</v>
       </c>
       <c r="V10" t="n">
-        <v>4.0</v>
+        <v>4.1</v>
       </c>
       <c r="W10" t="n">
-        <v>4.0</v>
+        <v>4.1</v>
       </c>
       <c r="X10" t="n">
-        <v>4.9</v>
+        <v>5.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>82.0</v>
+        <v>87.0</v>
       </c>
       <c r="AA10" t="n">
         <v>69.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>216.0</v>
+        <v>232.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B11" t="n">
-        <v>304.0</v>
+        <v>305.0</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
         <v>126</v>
@@ -5947,22 +5950,22 @@
         <v>154</v>
       </c>
       <c r="H11" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="I11" t="s">
         <v>207</v>
       </c>
       <c r="J11" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="K11" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="L11" t="e">
         <v>#N/A</v>
       </c>
       <c r="M11" t="n">
-        <v>12.9</v>
+        <v>13.9</v>
       </c>
       <c r="N11" t="n">
         <v>3.0</v>
@@ -5983,60 +5986,60 @@
         <v>2.0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U11" t="n">
         <v>0.0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="W11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X11" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>28.0</v>
+        <v>34.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>104.0</v>
+        <v>121.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" t="n">
-        <v>722.0</v>
+        <v>723.0</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
         <v>126</v>
@@ -6051,22 +6054,22 @@
         <v>154</v>
       </c>
       <c r="H12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I12" t="s">
         <v>213</v>
       </c>
       <c r="J12" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="K12" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="L12" t="n">
-        <v>850.0</v>
+        <v>931.0</v>
       </c>
       <c r="M12" t="n">
-        <v>9.4</v>
+        <v>10.3</v>
       </c>
       <c r="N12" t="n">
         <v>3.0</v>
@@ -6093,57 +6096,57 @@
         <v>0.0</v>
       </c>
       <c r="V12" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="X12" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>59.0</v>
+        <v>67.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>76.0</v>
+        <v>91.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" t="n">
-        <v>2192.0</v>
+        <v>2201.0</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E13" t="s">
         <v>147</v>
@@ -6155,22 +6158,22 @@
         <v>154</v>
       </c>
       <c r="H13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I13" t="s">
         <v>212</v>
       </c>
       <c r="J13" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="K13" t="n">
         <v>4.0</v>
       </c>
       <c r="L13" t="n">
-        <v>443.0</v>
+        <v>452.0</v>
       </c>
       <c r="M13" t="n">
-        <v>4.9</v>
+        <v>5.0</v>
       </c>
       <c r="N13" t="n">
         <v>3.0</v>
@@ -6212,28 +6215,28 @@
         <v>13.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>53.0</v>
+        <v>55.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="AD13" t="n">
         <v>0.2</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="14">
@@ -6241,7 +6244,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="n">
-        <v>2660.0</v>
+        <v>2670.0</v>
       </c>
       <c r="C14" t="s">
         <v>86</v>
@@ -6265,16 +6268,16 @@
         <v>213</v>
       </c>
       <c r="J14" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="K14" t="n">
         <v>22.0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>21.0</v>
       </c>
       <c r="L14" t="e">
         <v>#N/A</v>
       </c>
       <c r="M14" t="n">
-        <v>20.6</v>
+        <v>21.6</v>
       </c>
       <c r="N14" t="n">
         <v>2.0</v>
@@ -6316,28 +6319,28 @@
         <v>5.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="AB14" t="n">
         <v>1.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AD14" t="n">
         <v>0.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15">
@@ -6345,7 +6348,7 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>127.0</v>
+        <v>128.0</v>
       </c>
       <c r="C15" t="s">
         <v>82</v>
@@ -6366,19 +6369,19 @@
         <v>162</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="J15" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="K15" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L15" t="n">
-        <v>507.0</v>
+        <v>587.0</v>
       </c>
       <c r="M15" t="n">
-        <v>5.6</v>
+        <v>6.5</v>
       </c>
       <c r="N15" t="n">
         <v>1.0</v>
@@ -6417,42 +6420,42 @@
         <v>1.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>36.0</v>
+        <v>43.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="AD15" t="n">
         <v>0.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" t="n">
-        <v>400.0</v>
+        <v>401.0</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
         <v>126</v>
@@ -6467,7 +6470,7 @@
         <v>154</v>
       </c>
       <c r="H16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I16" t="s">
         <v>206</v>
@@ -6550,13 +6553,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B17" t="n">
-        <v>473.0</v>
+        <v>474.0</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
         <v>129</v>
@@ -6571,10 +6574,10 @@
         <v>154</v>
       </c>
       <c r="H17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I17" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="J17" t="n">
         <v>12.0</v>
@@ -6657,7 +6660,7 @@
         <v>64</v>
       </c>
       <c r="B18" t="n">
-        <v>1902.0</v>
+        <v>1910.0</v>
       </c>
       <c r="C18" t="s">
         <v>114</v>
@@ -6678,7 +6681,7 @@
         <v>194</v>
       </c>
       <c r="I18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J18" t="n">
         <v>14.0</v>
@@ -6726,16 +6729,16 @@
         <v>1.9</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="AA18" t="n">
         <v>20.0</v>
       </c>
       <c r="AB18" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="AC18" t="n">
         <v>0.23</v>
@@ -6753,7 +6756,7 @@
         <v>0.23</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="19">
@@ -6761,7 +6764,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="n">
-        <v>2234.0</v>
+        <v>2243.0</v>
       </c>
       <c r="C19" t="s">
         <v>80</v>
@@ -6782,19 +6785,19 @@
         <v>160</v>
       </c>
       <c r="I19" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="J19" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="K19" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="L19" t="e">
         <v>#N/A</v>
       </c>
       <c r="M19" t="n">
-        <v>16.4</v>
+        <v>17.4</v>
       </c>
       <c r="N19" t="n">
         <v>1.0</v>
@@ -6830,16 +6833,16 @@
         <v>1.3</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>72.0</v>
+        <v>77.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>80.0</v>
+        <v>88.0</v>
       </c>
       <c r="AC19" t="n">
         <v>0.06</v>
@@ -6848,13 +6851,13 @@
         <v>0.06</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AF19" t="n">
         <v>0.06</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AH19" t="n">
         <v>0.06</v>
@@ -6865,7 +6868,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="n">
-        <v>140.0</v>
+        <v>141.0</v>
       </c>
       <c r="C20" t="s">
         <v>81</v>
@@ -6969,7 +6972,7 @@
         <v>28</v>
       </c>
       <c r="B21" t="n">
-        <v>1866.0</v>
+        <v>1874.0</v>
       </c>
       <c r="C21" t="s">
         <v>78</v>
@@ -6993,16 +6996,16 @@
         <v>208</v>
       </c>
       <c r="J21" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="K21" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="L21" t="e">
         <v>#N/A</v>
       </c>
       <c r="M21" t="n">
-        <v>16.1</v>
+        <v>17.0</v>
       </c>
       <c r="N21" t="n">
         <v>1.0</v>
@@ -7041,10 +7044,10 @@
         <v>0.7</v>
       </c>
       <c r="Z21" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>70.0</v>
+        <v>80.0</v>
       </c>
       <c r="AB21" t="n">
         <v>1.0</v>
@@ -7065,21 +7068,21 @@
         <v>0.06</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22" t="n">
-        <v>2447.0</v>
+        <v>2457.0</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E22" t="s">
         <v>146</v>
@@ -7091,22 +7094,22 @@
         <v>154</v>
       </c>
       <c r="H22" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I22" t="s">
         <v>208</v>
       </c>
       <c r="J22" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="K22" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="L22" t="e">
         <v>#N/A</v>
       </c>
       <c r="M22" t="n">
-        <v>18.4</v>
+        <v>19.4</v>
       </c>
       <c r="N22" t="n">
         <v>1.0</v>
@@ -7139,16 +7142,16 @@
         <v>1.8</v>
       </c>
       <c r="X22" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Y22" t="n">
         <v>2.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="AA22" t="n">
-        <v>91.0</v>
+        <v>107.0</v>
       </c>
       <c r="AB22" t="n">
         <v>8.0</v>
@@ -7169,7 +7172,7 @@
         <v>0.05</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="23">
@@ -7177,7 +7180,7 @@
         <v>38</v>
       </c>
       <c r="B23" t="n">
-        <v>2506.0</v>
+        <v>2516.0</v>
       </c>
       <c r="C23" t="s">
         <v>88</v>
@@ -7201,16 +7204,16 @@
         <v>212</v>
       </c>
       <c r="J23" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="K23" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="L23" t="e">
         <v>#N/A</v>
       </c>
       <c r="M23" t="n">
-        <v>16.6</v>
+        <v>17.6</v>
       </c>
       <c r="N23" t="n">
         <v>1.0</v>
@@ -7246,45 +7249,45 @@
         <v>1.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.9</v>
+        <v>3.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="AA23" t="n">
-        <v>62.0</v>
+        <v>67.0</v>
       </c>
       <c r="AB23" t="n">
-        <v>110.0</v>
+        <v>122.0</v>
       </c>
       <c r="AC23" t="n">
         <v>0.06</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AF23" t="n">
         <v>0.06</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" t="n">
-        <v>2646.0</v>
+        <v>2656.0</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
         <v>139</v>
@@ -7299,22 +7302,22 @@
         <v>154</v>
       </c>
       <c r="H24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I24" t="s">
         <v>212</v>
       </c>
       <c r="J24" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K24" t="n">
         <v>7.0</v>
       </c>
       <c r="L24" t="n">
-        <v>639.0</v>
+        <v>648.0</v>
       </c>
       <c r="M24" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="N24" t="n">
         <v>1.0</v>
@@ -7353,7 +7356,7 @@
         <v>1.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA24" t="n">
         <v>29.0</v>
@@ -7385,7 +7388,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>265.0</v>
+        <v>266.0</v>
       </c>
       <c r="C25" t="s">
         <v>83</v>
@@ -7409,16 +7412,16 @@
         <v>211</v>
       </c>
       <c r="J25" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="K25" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="L25" t="e">
         <v>#N/A</v>
       </c>
       <c r="M25" t="n">
-        <v>12.2</v>
+        <v>13.2</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
@@ -7457,13 +7460,13 @@
         <v>0.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA25" t="n">
-        <v>77.0</v>
+        <v>81.0</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AC25" t="n">
         <v>0.0</v>
@@ -7489,7 +7492,7 @@
         <v>39</v>
       </c>
       <c r="B26" t="n">
-        <v>337.0</v>
+        <v>338.0</v>
       </c>
       <c r="C26" t="s">
         <v>89</v>
@@ -7590,19 +7593,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>501.0</v>
+        <v>502.0</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
         <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F27" t="s">
         <v>153</v>
@@ -7611,22 +7614,22 @@
         <v>154</v>
       </c>
       <c r="H27" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I27" t="s">
         <v>212</v>
       </c>
       <c r="J27" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="K27" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="L27" t="e">
         <v>#N/A</v>
       </c>
       <c r="M27" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="N27" t="n">
         <v>0.0</v>
@@ -7647,7 +7650,7 @@
         <v>0.0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U27" t="n">
         <v>0.0</v>
@@ -7697,7 +7700,7 @@
         <v>58</v>
       </c>
       <c r="B28" t="n">
-        <v>592.0</v>
+        <v>593.0</v>
       </c>
       <c r="C28" t="s">
         <v>108</v>
@@ -7706,7 +7709,7 @@
         <v>140</v>
       </c>
       <c r="E28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F28" t="s">
         <v>153</v>
@@ -7721,13 +7724,13 @@
         <v>213</v>
       </c>
       <c r="J28" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K28" t="n">
         <v>0.0</v>
       </c>
       <c r="L28" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M28" t="n">
         <v>0.1</v>
@@ -7801,7 +7804,7 @@
         <v>59</v>
       </c>
       <c r="B29" t="n">
-        <v>828.0</v>
+        <v>829.0</v>
       </c>
       <c r="C29" t="s">
         <v>109</v>
@@ -7905,7 +7908,7 @@
         <v>60</v>
       </c>
       <c r="B30" t="n">
-        <v>847.0</v>
+        <v>848.0</v>
       </c>
       <c r="C30" t="s">
         <v>110</v>
@@ -7926,7 +7929,7 @@
         <v>190</v>
       </c>
       <c r="I30" t="s">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="J30" t="n">
         <v>2.0</v>
@@ -8009,7 +8012,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="n">
-        <v>942.0</v>
+        <v>943.0</v>
       </c>
       <c r="C31" t="s">
         <v>85</v>
@@ -8033,16 +8036,16 @@
         <v>208</v>
       </c>
       <c r="J31" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="K31" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="L31" t="e">
         <v>#N/A</v>
       </c>
       <c r="M31" t="n">
-        <v>19.8</v>
+        <v>20.8</v>
       </c>
       <c r="N31" t="n">
         <v>0.0</v>
@@ -8069,40 +8072,40 @@
         <v>0.0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="W31" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="X31" t="n">
         <v>3.9</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z31" t="n">
         <v>34.0</v>
       </c>
       <c r="AA31" t="n">
-        <v>143.0</v>
+        <v>145.0</v>
       </c>
       <c r="AB31" t="n">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
       <c r="AC31" t="n">
         <v>0.0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AF31" t="n">
         <v>0.0</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AH31" t="n">
         <v>0.08</v>
@@ -8110,16 +8113,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>995.0</v>
+        <v>997.0</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E32" t="s">
         <v>149</v>
@@ -8131,22 +8134,22 @@
         <v>154</v>
       </c>
       <c r="H32" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I32" t="s">
         <v>209</v>
       </c>
       <c r="J32" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="K32" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L32" t="n">
-        <v>861.0</v>
+        <v>951.0</v>
       </c>
       <c r="M32" t="n">
-        <v>9.6</v>
+        <v>10.6</v>
       </c>
       <c r="N32" t="n">
         <v>0.0</v>
@@ -8167,7 +8170,7 @@
         <v>0.0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U32" t="n">
         <v>0.0</v>
@@ -8185,13 +8188,13 @@
         <v>1.2</v>
       </c>
       <c r="Z32" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="AA32" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="AB32" t="n">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="AC32" t="n">
         <v>0.0</v>
@@ -8217,7 +8220,7 @@
         <v>61</v>
       </c>
       <c r="B33" t="n">
-        <v>1128.0</v>
+        <v>1131.0</v>
       </c>
       <c r="C33" t="s">
         <v>111</v>
@@ -8318,13 +8321,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B34" t="n">
-        <v>1141.0</v>
+        <v>1144.0</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
         <v>128</v>
@@ -8339,13 +8342,13 @@
         <v>154</v>
       </c>
       <c r="H34" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I34" t="s">
         <v>206</v>
       </c>
       <c r="J34" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="K34" t="n">
         <v>18.0</v>
@@ -8354,7 +8357,7 @@
         <v>#N/A</v>
       </c>
       <c r="M34" t="n">
-        <v>18.0</v>
+        <v>18.1</v>
       </c>
       <c r="N34" t="n">
         <v>0.0</v>
@@ -8425,7 +8428,7 @@
         <v>62</v>
       </c>
       <c r="B35" t="n">
-        <v>1505.0</v>
+        <v>1512.0</v>
       </c>
       <c r="C35" t="s">
         <v>112</v>
@@ -8529,7 +8532,7 @@
         <v>63</v>
       </c>
       <c r="B36" t="n">
-        <v>1676.0</v>
+        <v>1683.0</v>
       </c>
       <c r="C36" t="s">
         <v>113</v>
@@ -8550,7 +8553,7 @@
         <v>193</v>
       </c>
       <c r="I36" t="s">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="J36" t="n">
         <v>2.0</v>
@@ -8633,7 +8636,7 @@
         <v>29</v>
       </c>
       <c r="B37" t="n">
-        <v>2107.0</v>
+        <v>2116.0</v>
       </c>
       <c r="C37" t="s">
         <v>79</v>
@@ -8657,7 +8660,7 @@
         <v>209</v>
       </c>
       <c r="J37" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="K37" t="n">
         <v>20.0</v>
@@ -8737,7 +8740,7 @@
         <v>65</v>
       </c>
       <c r="B38" t="n">
-        <v>2520.0</v>
+        <v>2530.0</v>
       </c>
       <c r="C38" t="s">
         <v>115</v>
@@ -8758,7 +8761,7 @@
         <v>195</v>
       </c>
       <c r="I38" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="J38" t="n">
         <v>6.0</v>
@@ -8841,7 +8844,7 @@
         <v>66</v>
       </c>
       <c r="B39" t="n">
-        <v>252.0</v>
+        <v>253.0</v>
       </c>
       <c r="C39" t="s">
         <v>116</v>
@@ -8945,7 +8948,7 @@
         <v>67</v>
       </c>
       <c r="B40" t="n">
-        <v>517.0</v>
+        <v>518.0</v>
       </c>
       <c r="C40" t="s">
         <v>117</v>
@@ -8966,7 +8969,7 @@
         <v>197</v>
       </c>
       <c r="I40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J40" t="n">
         <v>1.0</v>
@@ -9049,7 +9052,7 @@
         <v>68</v>
       </c>
       <c r="B41" t="n">
-        <v>723.0</v>
+        <v>724.0</v>
       </c>
       <c r="C41" t="s">
         <v>118</v>
@@ -9070,19 +9073,19 @@
         <v>198</v>
       </c>
       <c r="I41" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="J41" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="K41" t="n">
         <v>7.0</v>
       </c>
       <c r="L41" t="n">
-        <v>627.0</v>
+        <v>646.0</v>
       </c>
       <c r="M41" t="n">
-        <v>7.0</v>
+        <v>7.2</v>
       </c>
       <c r="N41" t="n">
         <v>0.0</v>
@@ -9127,7 +9130,7 @@
         <v>23.0</v>
       </c>
       <c r="AB41" t="n">
-        <v>38.0</v>
+        <v>45.0</v>
       </c>
       <c r="AC41" t="n">
         <v>0.0</v>
@@ -9153,7 +9156,7 @@
         <v>69</v>
       </c>
       <c r="B42" t="n">
-        <v>1151.0</v>
+        <v>1154.0</v>
       </c>
       <c r="C42" t="s">
         <v>119</v>
@@ -9257,7 +9260,7 @@
         <v>70</v>
       </c>
       <c r="B43" t="n">
-        <v>1346.0</v>
+        <v>1351.0</v>
       </c>
       <c r="C43" t="s">
         <v>120</v>
@@ -9278,7 +9281,7 @@
         <v>200</v>
       </c>
       <c r="I43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J43" t="n">
         <v>1.0</v>
@@ -9358,13 +9361,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>1371.0</v>
+        <v>1376.0</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
         <v>126</v>
@@ -9379,7 +9382,7 @@
         <v>154</v>
       </c>
       <c r="H44" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I44" t="s">
         <v>208</v>
@@ -9462,19 +9465,19 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" t="n">
-        <v>1512.0</v>
+        <v>1519.0</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D45" t="s">
         <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F45" t="s">
         <v>152</v>
@@ -9483,22 +9486,22 @@
         <v>154</v>
       </c>
       <c r="H45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J45" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="K45" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="L45" t="e">
         <v>#N/A</v>
       </c>
       <c r="M45" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="N45" t="n">
         <v>0.0</v>
@@ -9569,7 +9572,7 @@
         <v>25</v>
       </c>
       <c r="B46" t="n">
-        <v>1572.0</v>
+        <v>1579.0</v>
       </c>
       <c r="C46" t="s">
         <v>75</v>
@@ -9673,7 +9676,7 @@
         <v>71</v>
       </c>
       <c r="B47" t="n">
-        <v>1627.0</v>
+        <v>1634.0</v>
       </c>
       <c r="C47" t="s">
         <v>121</v>
@@ -9777,7 +9780,7 @@
         <v>72</v>
       </c>
       <c r="B48" t="n">
-        <v>1767.0</v>
+        <v>1775.0</v>
       </c>
       <c r="C48" t="s">
         <v>122</v>
@@ -9878,13 +9881,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B49" t="n">
-        <v>1906.0</v>
+        <v>1914.0</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
         <v>127</v>
@@ -9899,22 +9902,22 @@
         <v>154</v>
       </c>
       <c r="H49" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I49" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="J49" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="K49" t="n">
         <v>2.0</v>
       </c>
       <c r="L49" t="n">
-        <v>347.0</v>
+        <v>356.0</v>
       </c>
       <c r="M49" t="n">
-        <v>3.9</v>
+        <v>4.0</v>
       </c>
       <c r="N49" t="n">
         <v>0.0</v>
@@ -9977,7 +9980,7 @@
         <v>0.0</v>
       </c>
       <c r="AH49" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="50">
@@ -9985,7 +9988,7 @@
         <v>73</v>
       </c>
       <c r="B50" t="n">
-        <v>2117.0</v>
+        <v>2126.0</v>
       </c>
       <c r="C50" t="s">
         <v>123</v>
@@ -10006,7 +10009,7 @@
         <v>203</v>
       </c>
       <c r="I50" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="J50" t="n">
         <v>9.0</v>
@@ -10086,13 +10089,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B51" t="n">
-        <v>2230.0</v>
+        <v>2239.0</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D51" t="s">
         <v>126</v>
@@ -10107,22 +10110,22 @@
         <v>154</v>
       </c>
       <c r="H51" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I51" t="s">
         <v>215</v>
       </c>
       <c r="J51" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="K51" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="L51" t="e">
         <v>#N/A</v>
       </c>
       <c r="M51" t="n">
-        <v>14.3</v>
+        <v>15.1</v>
       </c>
       <c r="N51" t="n">
         <v>0.0</v>
@@ -10149,25 +10152,25 @@
         <v>0.0</v>
       </c>
       <c r="V51" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="W51" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="X51" t="n">
         <v>0.2</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z51" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA51" t="n">
-        <v>81.0</v>
+        <v>92.0</v>
       </c>
       <c r="AB51" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="AC51" t="n">
         <v>0.0</v>
@@ -10185,7 +10188,7 @@
         <v>0.07</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
